--- a/Dateien/Materialliste_EL.xlsx
+++ b/Dateien/Materialliste_EL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601a15c1d61ea3e/Fachhochschule/7. Semester (Wise 2025)/Bachlorarbeit/veröffentlichung/Unterlagen für GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601a15c1d61ea3e/Fachhochschule/7. Semester (Wise 2025)/Bachlorarbeit/veröffentlichung/ELLIght-Fahrradseitenbeleuchtung-mit-Elektrolumineszenz/Dateien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="8_{88476D13-46FD-4A20-8873-B1200112D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98025EDB-D93F-4E95-A0D5-B6F846367505}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{88476D13-46FD-4A20-8873-B1200112D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56AA9AEE-8B69-4D14-85C9-2003864CB70C}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{C3B8D210-92D7-462B-8AA8-DAFFE3D91DA1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{C3B8D210-92D7-462B-8AA8-DAFFE3D91DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Materialliste" sheetId="5" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>Kupferdraht verzinnt</t>
   </si>
   <si>
-    <t>El-Folie(n)</t>
-  </si>
-  <si>
     <t xml:space="preserve">bis zu 150 cm²  </t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>Menge</t>
   </si>
   <si>
-    <t>El-Folientreiber, HV830LG-G</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATtiny85V-10SU </t>
   </si>
   <si>
@@ -346,6 +340,12 @@
   </si>
   <si>
     <t>2,5 mm</t>
+  </si>
+  <si>
+    <t>EL-Folie(n)</t>
+  </si>
+  <si>
+    <t>EL-Folientreiber, HV830LG-G</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424A5A4F-21A1-4D87-8F93-408BB559BB5B}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="81" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -758,27 +758,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -786,13 +786,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -932,7 +932,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -974,7 +974,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1094,13 +1094,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -1229,35 +1229,35 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1268,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
@@ -1310,35 +1310,35 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1346,27 +1346,27 @@
     </row>
     <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
         <v>57</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>58</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
